--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2155960.784695508</v>
+        <v>2188302.70102017</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17317093.1305517</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5621275.15230698</v>
+        <v>5712692.67949275</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>350.2497122831302</v>
       </c>
       <c r="X2" t="n">
-        <v>399.4088683906707</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>125.0109621178189</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>237.1611851413343</v>
+        <v>8.129390960577833</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.8960533381043</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>49.64325294523511</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.831657401172</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>418.2942882004972</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>358.8320064489649</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.3484266092795</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>239.7084794820447</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>285.8262315320845</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.3942785639456</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>268.89351889044</v>
+        <v>184.6723321165224</v>
       </c>
       <c r="X13" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.9212285380445</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.3484266092795</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869773009</v>
       </c>
       <c r="E14" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>151.4575037847707</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>285.8262315320845</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.3942785639456</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T16" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>181.6742839451046</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.3484266092795</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>285.8262315320845</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.3942785639465</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>111.1717796294576</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.3484266092795</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>285.8262315320845</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.3942785639456</v>
+        <v>400.8069000430777</v>
       </c>
       <c r="X20" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>120.781464080445</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.412621479132298</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.1368499368245</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.49380289235356</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>228.0098952250315</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>81.49380289235431</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,10 +3670,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>130.6556207749486</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.909245336631695</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>14.52022298023409</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>117.8862381513848</v>
       </c>
       <c r="D43" t="n">
-        <v>126.7541180064932</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4034,7 +4034,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>87.27215053452881</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>85.55329631630666</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>195.8910553508158</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.5450437647382</v>
+        <v>554.8743158913576</v>
       </c>
       <c r="C2" t="n">
-        <v>118.4429749885655</v>
+        <v>520.7722471151849</v>
       </c>
       <c r="D2" t="n">
-        <v>86.57359420341409</v>
+        <v>488.9028663300335</v>
       </c>
       <c r="E2" t="n">
-        <v>56.83925340211333</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>33.01222785172512</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>33.01222785172512</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.01222785172512</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>33.01222785172512</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>441.5385475168235</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>441.5385475168235</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>441.5385475168235</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>441.5385475168235</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>441.5385475168235</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>850.064867181922</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1072.931008168101</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1481.457327833199</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>1650.611392586256</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1650.611392586256</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1650.611392586256</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1391.389089903273</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1391.389089903273</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>986.5336353143064</v>
+        <v>1000.521665416493</v>
       </c>
       <c r="X2" t="n">
-        <v>583.0903339095885</v>
+        <v>581.3792019958039</v>
       </c>
       <c r="Y2" t="n">
-        <v>174.8042102092419</v>
+        <v>577.1334823358613</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497.4483206592304</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>390.9918594958726</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>295.9015706424259</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>201.7811559693796</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>118.3973175855412</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>33.01222785172512</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>33.01222785172512</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>59.07590101218273</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>383.634225978395</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>792.1605456434935</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>792.1605456434935</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>792.1605456434935</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>792.1605456434935</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>792.1605456434935</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1124.912294826818</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1533.438614491916</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1650.611392586256</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1587.155955034639</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1460.882255925731</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1284.5457089257</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1085.428190987699</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>900.1054367208928</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>745.2380009597728</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>618.7522217389935</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.8698851415649</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>457.3081736247898</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>291.4301808263125</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>121.6721770770498</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>121.6721770770498</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>121.6721770770498</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>121.6721770770498</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>33.01222785172512</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.01222785172512</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.01222785172512</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>425.0324335909609</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>833.5587532560593</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1242.085072921158</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1650.611392586256</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1650.611392586256</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>1650.611392586256</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1629.193571291628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1629.193571291628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1629.193571291628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1629.193571291628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1342.238063162059</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1102.681310494044</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="X4" t="n">
-        <v>857.2895558274565</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y4" t="n">
-        <v>629.8698851415649</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>557.9336779278854</v>
+        <v>600.7400703100478</v>
       </c>
       <c r="C5" t="n">
-        <v>523.8316091517128</v>
+        <v>566.6380015338752</v>
       </c>
       <c r="D5" t="n">
-        <v>491.9622283665614</v>
+        <v>130.7282167083197</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>100.993875907019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515258</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530728</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530728</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1855.283278464554</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1450.427823875588</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1031.285360454898</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>622.9992367545516</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.0636759001416</v>
+        <v>577.3912258549057</v>
       </c>
       <c r="C8" t="n">
-        <v>449.9616071239689</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.3228423446453</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2329.025464169343</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1891.299780725626</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1455.80678527293</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.677008018339</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>786.2263678004068</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>385.2453257965307</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>96.53196061260702</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>96.53196061260702</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>531.7866480655249</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.136940023703</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.196906276562</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.196906276562</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.196906276562</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.376572846868</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.686447680265</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4796.185233638859</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4826.598030630351</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4826.598030630351</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4606.947592876249</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4348.142079566126</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3985.941918872813</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3581.503253656706</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3162.777579608877</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2754.90824528139</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.7037056038998</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.2472444405421</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.1569555870954</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.0365409140491</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.6527025302107</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.2676127963946</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>96.53196061260702</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>122.5956337730646</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.1539587392769</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.860005365001</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.860005365001</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.860005365001</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.860005365001</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.860005365001</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.860005365001</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.598943997076</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.771722091416</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.316284539799</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.137640870401</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.801093870369</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.683575932368</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.360821665562</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.4933859044422</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.007606683663</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1000.527673470553</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.527673470553</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D13" t="n">
-        <v>835.0664700449361</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E13" t="n">
-        <v>665.7252556685334</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F13" t="n">
-        <v>489.4349910031495</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G13" t="n">
-        <v>324.2605054018372</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>184.7751204650717</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.53196061260702</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>183.520141041637</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.6870908771127</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>877.3054679094138</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1337.197830354667</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1779.865128776651</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2199.942873266773</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2547.858262501455</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2716.459532630127</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.458500708359</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2536.633921379216</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.171264330531</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.155052956496</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.616334199787</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1455.006719158938</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X13" t="n">
-        <v>1210.031753865211</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y13" t="n">
-        <v>1191.92950281668</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2245.790379726039</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1808.064696282322</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1372.571700829626</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>939.2137453607813</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>786.2263678004068</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.2453257965307</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>96.53196061260701</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>96.53196061260701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>531.7866480655249</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.136940023703</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.196906276562</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.196906276562</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2471.609703268053</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3451.78936983836</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P14" t="n">
-        <v>4280.099244671756</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q14" t="n">
-        <v>4826.59803063035</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R14" t="n">
-        <v>4826.59803063035</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S14" t="n">
-        <v>4743.362946187047</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T14" t="n">
-        <v>4523.712508432945</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U14" t="n">
-        <v>4264.906995122822</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V14" t="n">
-        <v>3902.706834429508</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W14" t="n">
-        <v>3498.268169213402</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3079.542495165573</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2671.673160838086</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.7037056038998</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C15" t="n">
-        <v>496.2472444405421</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D15" t="n">
-        <v>401.1569555870954</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.0365409140491</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.6527025302107</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.2676127963945</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>96.53196061260701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>122.5956337730646</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.1539587392769</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.1539587392769</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>447.1539587392769</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>447.1539587392769</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>447.1539587392769</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>447.1539587392769</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.860005365001</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.598943997076</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.771722091416</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.316284539799</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.137640870401</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.801093870369</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.683575932368</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.360821665562</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.4933859044422</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.007606683663</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.672595614468</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.527673470553</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D16" t="n">
-        <v>835.066470044936</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E16" t="n">
-        <v>665.7252556685332</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>489.4349910031495</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>324.2605054018371</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>184.7751204650717</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>96.53196061260701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>183.5201410416369</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.6870908771126</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>877.3054679094137</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1337.197830354667</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1779.865128776651</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2199.942873266773</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2547.858262501455</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2716.459532630127</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2695.458500708359</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2536.633921379216</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2291.171264330531</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2291.171264330531</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2107.661886608204</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1836.052271567355</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1591.077306273628</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.074424960596</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.798197351206</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.674257000254</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2751.674257000254</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3731.853923570561</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4560.163798403957</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>843.7581867113973</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>671.6132645674822</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>506.152061141865</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.152061141865</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>329.8617964764812</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>329.8617964764812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>882.9067589840575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1342.79912142931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2701.059791783003</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2588.765064884561</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2343.302407835877</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.286196461842</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1778.747477705132</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1507.137862664284</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1262.162897370556</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1035.160016057524</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.636254561827</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1219.278299092982</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>791.82765887505</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>390.8466168711739</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H20" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2582.520192247198</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1042.690991329381</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>870.5460691854664</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>705.0848657598491</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>583.0833868907126</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>406.7931222253288</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>241.6186366240165</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2701.059791783004</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2542.235212453861</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2542.235212453861</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.219001079826</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.680282323116</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1706.070667282268</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1461.09570198854</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1234.092820675509</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C23" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E23" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F23" t="n">
-        <v>791.8276588750505</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G23" t="n">
-        <v>390.8466168711748</v>
+        <v>391.807784200425</v>
       </c>
       <c r="H23" t="n">
-        <v>102.133251687251</v>
+        <v>102.677629643641</v>
       </c>
       <c r="I23" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J23" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N23" t="n">
-        <v>2751.674257000254</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O23" t="n">
-        <v>3731.853923570561</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P23" t="n">
-        <v>4560.163798403957</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q23" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R23" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S23" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T23" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U23" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W23" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X23" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y23" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H24" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I24" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.93267231271</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>836.7877501687946</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>671.3265467431772</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>671.3265467431772</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>495.0362820777934</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>329.8617964764811</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
-        <v>190.3764115397156</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I25" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J25" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>464.2883819517567</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L25" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2701.059791783004</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2701.059791783004</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2455.597134734319</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2177.580923360284</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1891.042204603574</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1619.432589562726</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1374.457624268999</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1147.454742955967</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6303,25 +6303,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>832.0502353276421</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1496.680279399108</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.288524732521</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1023.868854046629</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,19 +6707,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6917,16 +6917,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6944,34 +6944,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2455.944287558409</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2177.511286811514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1890.555778681944</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.529374268236</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.137619601648</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009656</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7205,16 +7205,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1008.757289365886</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674088</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>673.121292818146</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7330,13 +7330,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.575908084873</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2248.835493919586</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1810.69302110301</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1374.783236277454</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>941.0084914357494</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>513.1410618449572</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>111.7432304682211</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>97.07633856899555</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>96.65954919613556</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>531.9142366490535</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1366.264528607231</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2441.324494860091</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2441.324494860091</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2441.324494860091</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3421.504161430397</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4117.324609095127</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4663.823395053721</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4832.977459806778</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4749.325585990615</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4529.258358863653</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4270.03605618067</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3907.419106114497</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3502.56365152553</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3083.421188104841</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2675.135064404494</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>602.8312941874284</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>496.3748330240707</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>401.2845441706239</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>307.1641294975776</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>223.7802911137392</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>138.3952013799231</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>96.65954919613556</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>122.7232223565932</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>447.2815473228055</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>447.2815473228055</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>447.2815473228055</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>447.2815473228055</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>447.2815473228055</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>447.2815473228055</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1101.987593948529</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1642.726532580605</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1759.899310674944</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1696.443873123327</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1566.265229453929</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1389.928682453897</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1190.811164515897</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1005.488410249091</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>850.6209744879708</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>724.1351952671915</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>997.9720053327355</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C43" t="n">
-        <v>825.4102938159606</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>697.3758311831391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>527.6178274338764</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>350.9107733956326</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>185.3194984214602</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>185.3194984214602</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>96.65954919613556</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>183.2392343608254</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>457.9976889319608</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>876.2075706999218</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1335.691437880835</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1777.95024103848</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2197.619490264261</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2545.126384234603</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2713.319159098935</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2713.319159098935</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2554.077790396932</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2308.198343975388</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2029.765343228493</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1742.809835098923</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1470.783430685215</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1225.391676018627</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>997.9720053327355</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.298756577145</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.156283760568</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.246498935013</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.471754093308</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6043245025155</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2064931257793</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.07633856899555</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.65954919613556</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9142366490535</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.264528607231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.324494860091</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.324494860091</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.324494860091</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.504161430397</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>4117.324609095127</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>4663.823395053721</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>4832.977459806778</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4749.325585990615</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4529.258358863653</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4270.03605618067</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.882368772055</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.026914183088</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.884450762399</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.598327062052</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.8312941874284</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.3748330240707</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.2845441706239</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.1641294975776</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.7802911137392</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.3952013799231</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.65954919613556</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7232223565932</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.2815473228055</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1101.987593948529</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1101.987593948529</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1101.987593948529</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.987593948529</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1101.987593948529</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.987593948529</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.726532580605</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.899310674944</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.443873123327</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.265229453929</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.928682453897</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.811164515897</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.488410249091</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6209744879708</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.1351952671915</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1033.573057299639</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>861.0113457828643</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>695.1333529843869</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>525.3753492351241</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>348.6682951968801</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>183.0770202227079</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>183.0770202227079</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.65954919613556</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.2392343608254</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>457.997688931961</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.207570699922</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.691437880835</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1777.95024103848</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.619490264261</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.126384234603</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.319159098935</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.319159098935</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.077790396932</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.198343975387</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.765343228492</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.809835098923</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.783430685214</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.391676018627</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y46" t="n">
-        <v>1225.391676018627</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>412.6528481465641</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>225.1173141274535</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>336.1128779629541</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,16 +8140,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>395.9800057972079</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>412.6528481465641</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.6685872558646</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>30.71999696110288</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>30.71999696110197</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>307.9556158071196</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>307.9556158071196</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10112,25 +10112,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>565.8642197954478</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>-6.119210872682381e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,13 +11069,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>702.8489370350808</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>702.8489370350808</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>189.3158964321117</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.40273359886996</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.4234729224759</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>84.63380825304901</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.8116239618569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>271.7186300309822</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.2360492602943</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>101.9990476240379</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>167.6478022326387</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>46.06455390639434</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.86633815219366</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>243.0080304781979</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.3509611158413</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>167.6478022326387</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.2363335358519</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>41.29624514453985</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>33.27974144948203</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.2362286424011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.7186300309818</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>52.9498562502225</v>
       </c>
       <c r="D43" t="n">
-        <v>37.4650948639993</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>271.7186300309829</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.220053416764758</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>88.194897697458</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457261.3028736194</v>
+        <v>458439.1990825247</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>458439.1990825247</v>
+        <v>473235.2419096792</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>458439.1990825247</v>
+        <v>475899.3019632591</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481857.5300962165</v>
+        <v>502386.7399644183</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481857.5300962164</v>
+        <v>502386.7399644183</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>502481.7445533528</v>
+        <v>502386.7399644183</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502481.7445533528</v>
+        <v>502386.7399644183</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>502481.7445533528</v>
+        <v>502386.7399644183</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>502386.7399644183</v>
+        <v>502386.7399644182</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481762.5255072821</v>
+        <v>502386.7399644183</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481762.5255072819</v>
+        <v>502386.7399644183</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522743.6368931484</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931484</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>492828.2527493502</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>492828.2527493501</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="G2" t="n">
-        <v>513916.3356260547</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="H2" t="n">
-        <v>513916.3356260547</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
-        <v>513916.3356260546</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="K2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
+        <v>513686.1445339185</v>
+      </c>
+      <c r="M2" t="n">
         <v>513686.1445339184</v>
-      </c>
-      <c r="M2" t="n">
-        <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
         <v>513686.1445339184</v>
       </c>
       <c r="O2" t="n">
-        <v>492598.0616572139</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="P2" t="n">
-        <v>492598.0616572138</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138289.460429421</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>3761.515025414089</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
-        <v>233923.6853340547</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19190.37330242262</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>108385.4266423191</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>2996.538036449315</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
-        <v>194965.6590288614</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214670.4156461083</v>
+        <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91311.70158910273</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="F4" t="n">
-        <v>91311.70158910273</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="G4" t="n">
-        <v>95206.69569251795</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="H4" t="n">
-        <v>95206.69569251795</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="I4" t="n">
-        <v>95206.69569251795</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="J4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="K4" t="n">
         <v>94878.44464875288</v>
       </c>
-      <c r="K4" t="n">
-        <v>94878.44464875291</v>
-      </c>
       <c r="L4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875291</v>
@@ -26454,10 +26454,10 @@
         <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>90983.45054533765</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="P4" t="n">
-        <v>90983.45054533765</v>
+        <v>94878.44464875285</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58716.89316731109</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73398.97874071043</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>73398.97874071042</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="G5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>73461.25738906302</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73461.25738906302</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111066.8676503079</v>
+        <v>109034.428658998</v>
       </c>
       <c r="C6" t="n">
-        <v>247464.2142932939</v>
+        <v>204481.0223984231</v>
       </c>
       <c r="D6" t="n">
-        <v>251225.7293187081</v>
+        <v>263113.9815149646</v>
       </c>
       <c r="E6" t="n">
-        <v>94193.88708548242</v>
+        <v>158711.1277189406</v>
       </c>
       <c r="F6" t="n">
-        <v>328117.5724195369</v>
+        <v>341066.2369399905</v>
       </c>
       <c r="G6" t="n">
-        <v>321863.3066736743</v>
+        <v>341066.2369399906</v>
       </c>
       <c r="H6" t="n">
-        <v>341053.6799760968</v>
+        <v>341066.2369399905</v>
       </c>
       <c r="I6" t="n">
-        <v>341053.6799760967</v>
+        <v>341066.2369399905</v>
       </c>
       <c r="J6" t="n">
-        <v>232704.0346370541</v>
+        <v>230051.7715950004</v>
       </c>
       <c r="K6" t="n">
-        <v>338092.9232429239</v>
+        <v>288020.3823012181</v>
       </c>
       <c r="L6" t="n">
-        <v>341089.461279373</v>
+        <v>331673.935213368</v>
       </c>
       <c r="M6" t="n">
-        <v>146123.8022505117</v>
+        <v>188866.0660020026</v>
       </c>
       <c r="N6" t="n">
-        <v>341089.461279373</v>
+        <v>341066.2369399904</v>
       </c>
       <c r="O6" t="n">
-        <v>328153.3537228132</v>
+        <v>341066.2369399904</v>
       </c>
       <c r="P6" t="n">
-        <v>328153.3537228132</v>
+        <v>341066.2369399904</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1206.649507657588</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1206.649507657587</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1208.244364951694</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1208.244364951694</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>11.64300937354028</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
-        <v>782.3536501374833</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>70.0161384330504</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>414.2477054406716</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>11.64300937354028</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>782.3536501374833</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>11.64300937354028</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>782.3536501374833</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>70.0161384330504</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>50.55718775994683</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5421703958117</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>3.865895114885504</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27594,10 +27594,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>32.14495522823705</v>
+        <v>261.1767494089935</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.1405214419544</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>373.9455023496492</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8170133382538</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>3.742286579561437</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>72.71868052833503</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.03913730891415e-12</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>412.6528481465641</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>225.1173141274535</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>336.1128779629541</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>395.9800057972079</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>412.6528481465641</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>412.6528481465641</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.6685872558646</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>30.71999696110288</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.4296860956388</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>30.71999696110197</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>424.3209540304263</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>307.9556158071196</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.8468454871726</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>447.1386852747316</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>170.3043132612856</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>307.9556158071196</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,25 +36832,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37075,22 +37075,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>565.8642197954478</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>-3.143474727635478e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,7 +37707,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,13 +37789,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>702.8489370350808</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37938,19 +37938,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>702.8489370350808</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
